--- a/data/trans_camb/CoPsoQ_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/CoPsoQ_R2-Estudios-trans_camb.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-13.83597945604144</v>
+        <v>-14.28556786088346</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-39.94877347440624</v>
+        <v>-40.38580686115752</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.668283837299262</v>
+        <v>-4.47436540150245</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.685785119081612</v>
+        <v>-1.961688236886455</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-6.015184531729751</v>
+        <v>-7.926612284626756</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-20.68196738569353</v>
+        <v>-21.08106244424626</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.968673191234632</v>
+        <v>7.86561799219159</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-2.635187302934831</v>
+        <v>-0.994743071287793</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>25.733421919313</v>
+        <v>24.73757429092033</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>36.09374793790694</v>
+        <v>38.7503233726778</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>12.3850000789501</v>
+        <v>11.29506714684774</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>7.371156203235854</v>
+        <v>6.937278110293282</v>
       </c>
     </row>
     <row r="7">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2480606514873206</v>
+        <v>-0.2530286462360753</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.7484417970676541</v>
+        <v>-0.7219984937087305</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1146726758398968</v>
+        <v>-0.1116990108051284</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.09783916813260719</v>
+        <v>-0.0538090271713917</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1191745997244209</v>
+        <v>-0.1618811566163624</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4315124793719969</v>
+        <v>-0.4480850002081547</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1992694748494253</v>
+        <v>0.1631021136998204</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.05866664763687519</v>
+        <v>-0.01081634233857738</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.8227810630481537</v>
+        <v>0.7877824843907423</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.110099544741017</v>
+        <v>1.196277888666297</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3075275249682458</v>
+        <v>0.2833078738080987</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1840480362145176</v>
+        <v>0.1569627478477817</v>
       </c>
     </row>
     <row r="10">
@@ -772,19 +772,19 @@
         <v>-1.926297818013367</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>-15.69040719576225</v>
+        <v>-15.69040719576224</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.3813884813291146</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-8.459130269120241</v>
+        <v>-8.459130269120235</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>-0.9885743129414704</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-12.41816976627255</v>
+        <v>-12.41816976627256</v>
       </c>
     </row>
     <row r="11">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-7.032971536389865</v>
+        <v>-6.812157812310879</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-23.22040211491376</v>
+        <v>-23.08049860215234</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-6.018285940599891</v>
+        <v>-5.552446053457925</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-15.47619246083168</v>
+        <v>-14.80885929289412</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-4.97559490234381</v>
+        <v>-4.931865458623539</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-17.4256820474861</v>
+        <v>-17.75905334980658</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.539775683312685</v>
+        <v>2.626148951166693</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-8.283786835192647</v>
+        <v>-7.312259172066041</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.326673403159775</v>
+        <v>6.274750240136487</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-1.472579179409045</v>
+        <v>-0.7562949807942508</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.280870072503868</v>
+        <v>2.408581037454802</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-7.157171834818543</v>
+        <v>-7.155171443095884</v>
       </c>
     </row>
     <row r="13">
@@ -850,19 +850,19 @@
         <v>-0.03375472490595538</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-0.2749447014904434</v>
+        <v>-0.2749447014904431</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>0.006754897042152933</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>-0.149822443076769</v>
+        <v>-0.1498224430767689</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.01739436642198852</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.2185027391236627</v>
+        <v>-0.2185027391236629</v>
       </c>
     </row>
     <row r="14">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1175376943769909</v>
+        <v>-0.1153974125525141</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4016879171471047</v>
+        <v>-0.3919542695554287</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.09889741127761291</v>
+        <v>-0.0930953144685463</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2642568162435682</v>
+        <v>-0.256756997554891</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.08443284137996994</v>
+        <v>-0.08372603309246721</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3013787670259407</v>
+        <v>-0.3086281714269705</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.04591281472695217</v>
+        <v>0.04944539416321948</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.1555188194270967</v>
+        <v>-0.1276517224787768</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.1204817383751315</v>
+        <v>0.1171966728300073</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.02944956370446647</v>
+        <v>-0.01468284613338228</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.04243891221226742</v>
+        <v>0.04342546280521799</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.1298604094894487</v>
+        <v>-0.1297455912401392</v>
       </c>
     </row>
     <row r="16">
@@ -944,7 +944,7 @@
         <v>-7.29089499257608</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-22.76201816713351</v>
+        <v>-22.7620181671335</v>
       </c>
     </row>
     <row r="17">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-16.61500447455527</v>
+        <v>-15.8084705747268</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-36.62802125602081</v>
+        <v>-36.88808702051644</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-15.4139402903163</v>
+        <v>-14.74140487085113</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-29.85571423215642</v>
+        <v>-30.32466381810426</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-12.86938398919737</v>
+        <v>-13.24727042204285</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-30.87991454582044</v>
+        <v>-30.63857948032374</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2717908861661323</v>
+        <v>0.1491756256410028</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-14.27963458195949</v>
+        <v>-14.34888085582416</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.732472241376931</v>
+        <v>3.331882431292456</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-7.800364690621874</v>
+        <v>-7.866330243973365</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-1.813142481312469</v>
+        <v>-1.257455156524028</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-14.83291876697516</v>
+        <v>-14.73550559589534</v>
       </c>
     </row>
     <row r="19">
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2405318298763079</v>
+        <v>-0.2302255045863887</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.5458289030790271</v>
+        <v>-0.5473887554385523</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2376923740113051</v>
+        <v>-0.2294817833338006</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.4664376616920776</v>
+        <v>-0.4826740531308049</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1957175744048082</v>
+        <v>-0.2034014381259406</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4831136348428031</v>
+        <v>-0.4687884875737364</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.00501716849806861</v>
+        <v>0.0009555599866103274</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.2159796422425484</v>
+        <v>-0.2203753032138549</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.05023642058714177</v>
+        <v>0.06145812818705777</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.13953964944139</v>
+        <v>-0.1422985443582105</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.03070581881100656</v>
+        <v>-0.02060753145481645</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.2469466091067578</v>
+        <v>-0.2381330833297685</v>
       </c>
     </row>
     <row r="22">
@@ -1098,7 +1098,7 @@
         <v>0.801248852666836</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-8.191380489645001</v>
+        <v>-8.191380489645006</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>-1.644061987848122</v>
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-7.223930790969773</v>
+        <v>-6.960637678793311</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-24.36965736366291</v>
+        <v>-24.82106309265581</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.549233488272331</v>
+        <v>-3.961752739759639</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-13.88245941111989</v>
+        <v>-13.84177175575462</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-4.339391631707981</v>
+        <v>-4.724140788772783</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-18.33400770401204</v>
+        <v>-17.89279999815854</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4872492704414563</v>
+        <v>0.7346254874058704</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-12.41694528918525</v>
+        <v>-12.65753453565504</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.76745356057917</v>
+        <v>5.35912568867982</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-2.375388497230566</v>
+        <v>-2.629716278384885</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.657062857419304</v>
+        <v>1.516127532573554</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-9.055472672711828</v>
+        <v>-9.695642216131633</v>
       </c>
     </row>
     <row r="25">
@@ -1170,13 +1170,13 @@
         <v>-0.05644762184432913</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>-0.3196170589687634</v>
+        <v>-0.3196170589687633</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>0.01476042421111888</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>-0.1508997491845611</v>
+        <v>-0.1508997491845612</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.02904152798531823</v>
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1198288844674544</v>
+        <v>-0.1168191695951616</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.4082978868937191</v>
+        <v>-0.4142722697631234</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.06307713638390436</v>
+        <v>-0.07036440653432041</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2505062542693202</v>
+        <v>-0.243306397504933</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.07535650863330431</v>
+        <v>-0.08083713045614772</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3186935800233764</v>
+        <v>-0.3140890010118402</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.009276406707339497</v>
+        <v>0.01297403272048847</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.2155946178954804</v>
+        <v>-0.2193403148769495</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.1129596554113191</v>
+        <v>0.1021275444914902</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.04812682737438759</v>
+        <v>-0.05066264115381585</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.02951343412328986</v>
+        <v>0.02794383013280115</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.1640898848634341</v>
+        <v>-0.1761331153817478</v>
       </c>
     </row>
     <row r="28">
